--- a/Documents/DB to Excel.xlsx
+++ b/Documents/DB to Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>fname</t>
   </si>
@@ -174,6 +174,180 @@
   </si>
   <si>
     <t>123456789</t>
+  </si>
+  <si>
+    <t>vfv</t>
+  </si>
+  <si>
+    <t>1234567892</t>
+  </si>
+  <si>
+    <t>2345432</t>
+  </si>
+  <si>
+    <t>svds</t>
+  </si>
+  <si>
+    <t>vdsv</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>vdw</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>34543212</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>cdsvef</t>
+  </si>
+  <si>
+    <t>veve</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Singarane</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>prakash</t>
+  </si>
+  <si>
+    <t>123443</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>chek</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>123432</t>
+  </si>
+  <si>
+    <t>wdsv</t>
+  </si>
+  <si>
+    <t>dsve</t>
+  </si>
+  <si>
+    <t>1234543</t>
+  </si>
+  <si>
+    <t>frebe</t>
+  </si>
+  <si>
+    <t>vrebe</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>mvdvd</t>
+  </si>
+  <si>
+    <t>cdve</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>vvv</t>
+  </si>
+  <si>
+    <t>1234567894</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ewfew</t>
+  </si>
+  <si>
+    <t>wfewfew</t>
+  </si>
+  <si>
+    <t>fewger</t>
+  </si>
+  <si>
+    <t>gverre</t>
+  </si>
+  <si>
+    <t>fdbfg</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>123456776</t>
+  </si>
+  <si>
+    <t>Banu</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>123232323</t>
+  </si>
+  <si>
+    <t>ewdfwe</t>
+  </si>
+  <si>
+    <t>vdved</t>
+  </si>
+  <si>
+    <t>5432</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>123456785</t>
+  </si>
+  <si>
+    <t>fesfw</t>
+  </si>
+  <si>
+    <t>fewg</t>
+  </si>
+  <si>
+    <t>2345676543</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>vsv</t>
+  </si>
+  <si>
+    <t>3454234</t>
+  </si>
+  <si>
+    <t>bbbbbb</t>
+  </si>
+  <si>
+    <t>234432</t>
   </si>
 </sst>
 </file>
@@ -218,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -477,6 +651,303 @@
         <v>53</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
